--- a/posesiones/1479713.xlsx
+++ b/posesiones/1479713.xlsx
@@ -1922,10 +1922,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>13</v>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>18</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>16</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>12</v>
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>14</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>5</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2863,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>37</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>12</v>
@@ -3019,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>15</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3119,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>17</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3219,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R29">
         <v>16</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3319,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R31">
         <v>16</v>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3419,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R33">
         <v>15</v>
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R34">
         <v>20</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R38">
         <v>15</v>
@@ -3722,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R39">
         <v>16</v>
@@ -3775,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R40">
         <v>12</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R42">
         <v>21</v>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3978,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R44">
         <v>8</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4081,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R46">
         <v>12</v>
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R52">
         <v>14</v>
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R53">
         <v>14</v>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4813,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R61">
         <v>34</v>
@@ -4866,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R62">
         <v>5</v>
@@ -4919,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R63">
         <v>20</v>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5119,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R67">
         <v>17</v>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R69">
         <v>11</v>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5319,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5466,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R74">
         <v>4</v>
@@ -5519,7 +5519,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R75">
         <v>11</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R76">
         <v>18</v>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5675,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R78">
         <v>11</v>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5775,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5872,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R82">
         <v>22</v>
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R85">
         <v>28</v>
@@ -6072,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6122,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R87">
         <v>16</v>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6695,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R99">
         <v>6</v>
@@ -6748,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6798,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R101">
         <v>11</v>
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6901,7 +6901,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R103">
         <v>16</v>
@@ -6954,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7051,7 +7051,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R106">
         <v>23</v>
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7189,10 +7189,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7327,10 +7327,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7380,7 +7380,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R113">
         <v>15</v>
@@ -7430,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7621,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7671,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R119">
         <v>25</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R121">
         <v>17</v>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7874,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R123">
         <v>16</v>
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7974,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R125">
         <v>9</v>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8074,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8221,7 +8221,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R130">
         <v>16</v>
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8324,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R132">
         <v>14</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8427,7 +8427,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R134">
         <v>16</v>
@@ -8480,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8530,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R136">
         <v>17</v>
@@ -8580,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8630,7 +8630,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R138">
         <v>15</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8818,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9053,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9244,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R151">
         <v>31</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9347,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R153">
         <v>7</v>
@@ -9397,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9444,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9544,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R157">
         <v>21</v>
@@ -9594,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9782,7 +9782,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9979,7 +9979,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R166">
         <v>34</v>
@@ -10029,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10076,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10126,7 +10126,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R169">
         <v>0</v>
@@ -10179,7 +10179,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R170">
         <v>15</v>
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10282,7 +10282,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R172">
         <v>10</v>
@@ -10335,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R174">
         <v>17</v>
@@ -10438,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10488,7 +10488,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R176">
         <v>17</v>
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10635,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10873,7 +10873,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R184">
         <v>15</v>
@@ -10926,7 +10926,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R185">
         <v>21</v>
@@ -10976,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11164,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11261,7 +11261,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R192">
         <v>25</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11364,7 +11364,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R194">
         <v>11</v>
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11458,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11508,7 +11508,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R197">
         <v>16</v>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11608,7 +11608,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R199">
         <v>22</v>
@@ -11658,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11708,7 +11708,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R201">
         <v>3</v>
@@ -11758,7 +11758,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11802,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11896,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11990,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12037,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12087,7 +12087,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R209">
         <v>24</v>
@@ -12140,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12190,7 +12190,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R211">
         <v>11</v>
@@ -12243,7 +12243,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R213">
         <v>18</v>
@@ -12343,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12393,7 +12393,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R215">
         <v>8</v>
@@ -12443,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12490,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12540,7 +12540,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12590,7 +12590,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R219">
         <v>13</v>
@@ -12643,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12690,7 +12690,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12737,7 +12737,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12784,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12831,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12878,7 +12878,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12928,7 +12928,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R226">
         <v>9</v>
@@ -12978,7 +12978,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13028,7 +13028,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R228">
         <v>23</v>
@@ -13081,7 +13081,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R229">
         <v>17</v>
@@ -13131,7 +13131,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13181,7 +13181,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R231">
         <v>20</v>
@@ -13234,7 +13234,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13284,7 +13284,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R233">
         <v>13</v>
@@ -13334,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13378,7 +13378,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13425,7 +13425,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13522,7 +13522,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R238">
         <v>15</v>
@@ -13572,7 +13572,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13619,7 +13619,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13669,7 +13669,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R241">
         <v>4</v>
@@ -13713,10 +13713,10 @@
         <v>1</v>
       </c>
       <c r="P242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q242">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13763,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13810,7 +13810,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13857,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13904,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13998,7 +13998,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14039,10 +14039,10 @@
         <v>1</v>
       </c>
       <c r="P249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q249">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14092,7 +14092,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R250">
         <v>11</v>
@@ -14145,7 +14145,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R251">
         <v>16</v>
@@ -14198,7 +14198,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14248,7 +14248,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R253">
         <v>17</v>
@@ -14301,7 +14301,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14351,7 +14351,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R255">
         <v>11</v>
@@ -14404,7 +14404,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14454,7 +14454,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R257">
         <v>7</v>
@@ -14507,7 +14507,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14557,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R259">
         <v>22</v>
@@ -14610,7 +14610,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14657,7 +14657,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14704,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14754,7 +14754,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R263">
         <v>22</v>
@@ -14804,7 +14804,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14854,7 +14854,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14904,7 +14904,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R266">
         <v>28</v>
@@ -14954,7 +14954,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15004,7 +15004,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R268">
         <v>19</v>
@@ -15057,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15107,7 +15107,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R270">
         <v>11</v>
@@ -15160,7 +15160,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15210,7 +15210,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R272">
         <v>9</v>
@@ -15260,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15310,7 +15310,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R274">
         <v>18</v>
@@ -15363,7 +15363,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R275">
         <v>15</v>
@@ -15416,7 +15416,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15463,7 +15463,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15510,7 +15510,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15560,7 +15560,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R279">
         <v>18</v>
@@ -15613,7 +15613,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R280">
         <v>22</v>
@@ -15666,7 +15666,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15713,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15766,7 +15766,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R283">
         <v>9</v>
@@ -15816,7 +15816,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15866,7 +15866,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R285">
         <v>18</v>
@@ -15919,7 +15919,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15966,7 +15966,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -16013,7 +16013,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16060,7 +16060,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16107,7 +16107,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16154,7 +16154,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16204,7 +16204,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R292">
         <v>19</v>
@@ -16257,7 +16257,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R293">
         <v>19</v>
@@ -16307,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16354,7 +16354,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16401,7 +16401,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16448,7 +16448,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16495,7 +16495,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16542,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16636,7 +16636,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16686,7 +16686,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R302">
         <v>33</v>
@@ -16739,7 +16739,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R303">
         <v>17</v>
@@ -16792,7 +16792,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R304">
         <v>14</v>
@@ -16845,7 +16845,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R305">
         <v>10</v>
@@ -16898,7 +16898,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16948,7 +16948,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R307">
         <v>15</v>
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17048,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R309">
         <v>13</v>
@@ -17101,7 +17101,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17148,7 +17148,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17198,7 +17198,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17248,7 +17248,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R313">
         <v>15</v>
@@ -17301,7 +17301,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17351,7 +17351,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R315">
         <v>8</v>
@@ -17401,7 +17401,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17451,7 +17451,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R317">
         <v>23</v>
@@ -17501,7 +17501,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17551,7 +17551,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R319">
         <v>16</v>
@@ -17601,7 +17601,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17651,7 +17651,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R321">
         <v>13</v>
@@ -17704,7 +17704,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17754,7 +17754,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R323">
         <v>19</v>
@@ -17807,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17857,7 +17857,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R325">
         <v>16</v>
@@ -17907,7 +17907,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17957,7 +17957,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R327">
         <v>24</v>
@@ -18010,7 +18010,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R328">
         <v>17</v>
@@ -18063,7 +18063,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18110,7 +18110,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18157,7 +18157,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18204,7 +18204,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18251,7 +18251,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18301,7 +18301,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R334">
         <v>9</v>
@@ -18351,7 +18351,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18398,7 +18398,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18448,7 +18448,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R337">
         <v>9</v>
@@ -18501,7 +18501,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R338">
         <v>15</v>
@@ -18545,10 +18545,10 @@
         <v>1</v>
       </c>
       <c r="P339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q339">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18642,7 +18642,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18683,10 +18683,10 @@
         <v>1</v>
       </c>
       <c r="P342" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q342">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18733,7 +18733,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18783,7 +18783,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18833,7 +18833,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R345">
         <v>19</v>
@@ -18883,7 +18883,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18930,7 +18930,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18977,7 +18977,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19077,7 +19077,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R350">
         <v>29</v>
@@ -19130,7 +19130,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19180,7 +19180,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R352">
         <v>8</v>
@@ -19230,7 +19230,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19280,7 +19280,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R354">
         <v>19</v>
@@ -19330,7 +19330,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19427,7 +19427,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R357">
         <v>17</v>
@@ -19480,7 +19480,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19527,7 +19527,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19574,7 +19574,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19624,7 +19624,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R361">
         <v>23</v>
@@ -19674,7 +19674,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19724,7 +19724,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R363">
         <v>6</v>
@@ -19774,7 +19774,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19821,7 +19821,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19868,7 +19868,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19915,7 +19915,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19962,7 +19962,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -20012,7 +20012,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R369">
         <v>16</v>
@@ -20065,7 +20065,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20112,7 +20112,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20206,7 +20206,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20256,7 +20256,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20303,7 +20303,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20353,7 +20353,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20403,7 +20403,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R377">
         <v>31</v>
@@ -20453,7 +20453,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20497,7 +20497,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20544,7 +20544,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20591,7 +20591,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20638,7 +20638,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20688,7 +20688,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R383">
         <v>12</v>
@@ -20741,7 +20741,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20791,7 +20791,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R385">
         <v>6</v>
@@ -20844,7 +20844,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20894,7 +20894,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R387">
         <v>20</v>
@@ -20947,7 +20947,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20997,7 +20997,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R389">
         <v>13</v>
@@ -21050,7 +21050,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21097,7 +21097,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21144,7 +21144,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21191,7 +21191,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21241,7 +21241,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R394">
         <v>4</v>
@@ -21291,7 +21291,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21338,7 +21338,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21388,7 +21388,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R397">
         <v>10</v>
@@ -21435,7 +21435,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21482,7 +21482,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21529,7 +21529,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21576,7 +21576,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R402">
         <v>18</v>
@@ -21676,7 +21676,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21770,7 +21770,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21820,7 +21820,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R406">
         <v>10</v>
@@ -21870,7 +21870,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21920,7 +21920,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R408">
         <v>5</v>
@@ -21970,7 +21970,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -22017,7 +22017,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22064,7 +22064,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22111,7 +22111,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22161,7 +22161,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R413">
         <v>21</v>
@@ -22211,7 +22211,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22258,7 +22258,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22305,7 +22305,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22352,7 +22352,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22402,7 +22402,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R418">
         <v>13</v>
@@ -22452,7 +22452,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22499,7 +22499,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22549,7 +22549,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R421">
         <v>24</v>
@@ -22602,7 +22602,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22652,7 +22652,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R423">
         <v>8</v>
@@ -22702,7 +22702,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22749,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22796,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22843,7 +22843,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22890,7 +22890,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22937,7 +22937,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22984,7 +22984,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23031,7 +23031,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23081,7 +23081,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R432">
         <v>20</v>
@@ -23134,7 +23134,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23228,7 +23228,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23325,7 +23325,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R437">
         <v>16</v>
@@ -23375,7 +23375,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23525,7 +23525,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R441">
         <v>28</v>
@@ -23575,7 +23575,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23625,7 +23625,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R443">
         <v>12</v>
@@ -23678,7 +23678,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23728,7 +23728,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R445">
         <v>15</v>
@@ -23778,7 +23778,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23828,7 +23828,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R447">
         <v>15</v>
@@ -23878,7 +23878,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23925,7 +23925,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24069,7 +24069,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24163,7 +24163,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24210,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24307,7 +24307,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24357,7 +24357,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R458">
         <v>38</v>
@@ -24410,7 +24410,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24460,7 +24460,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R460">
         <v>17</v>
@@ -24510,7 +24510,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24560,7 +24560,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24610,7 +24610,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R463">
         <v>16</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24704,7 +24704,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24754,7 +24754,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24804,7 +24804,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R467">
         <v>16</v>
@@ -24854,7 +24854,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24904,7 +24904,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R469">
         <v>22</v>
@@ -24954,7 +24954,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -25004,7 +25004,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R471">
         <v>12</v>
@@ -25054,7 +25054,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25101,7 +25101,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25151,7 +25151,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25245,7 +25245,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25292,7 +25292,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25339,7 +25339,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25386,7 +25386,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25436,7 +25436,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R480">
         <v>27</v>
@@ -25483,7 +25483,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25533,7 +25533,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R482">
         <v>0</v>
@@ -25583,7 +25583,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25677,7 +25677,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25771,7 +25771,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25821,7 +25821,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R488">
         <v>1</v>
@@ -25874,7 +25874,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R489">
         <v>1</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25968,7 +25968,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26015,7 +26015,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26065,7 +26065,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R493">
         <v>1</v>
@@ -26115,7 +26115,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26162,7 +26162,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26209,7 +26209,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26256,7 +26256,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26303,7 +26303,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26350,7 +26350,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26397,7 +26397,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26444,7 +26444,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26494,7 +26494,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R502">
         <v>3</v>
@@ -26544,7 +26544,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26591,7 +26591,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26638,7 +26638,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26685,7 +26685,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26732,7 +26732,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26782,7 +26782,7 @@
         <v>1</v>
       </c>
       <c r="Q508">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R508">
         <v>2</v>
@@ -26835,7 +26835,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R509">
         <v>2</v>
@@ -26891,7 +26891,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R510">
         <v>4</v>
@@ -26935,10 +26935,10 @@
         <v>1</v>
       </c>
       <c r="P511" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q511">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26979,7 +26979,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
